--- a/excelFiles/5-WebDevelopmentAndDBDesigning.xlsx
+++ b/excelFiles/5-WebDevelopmentAndDBDesigning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fachinformatiker-Ausbildung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/pit5lo_bosch_com/Documents/Ausbildung - Fachinformatik/excelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA15E5F-6740-4524-B9C8-624DB85710BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{ECA15E5F-6740-4524-B9C8-624DB85710BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AEEF6B5-9F33-41EB-A697-B409821E1DA4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{9CD730A3-8F49-4384-BBDD-74FD70423D42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{9CD730A3-8F49-4384-BBDD-74FD70423D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Montag" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>Time</t>
   </si>
@@ -367,6 +367,9 @@
   <si>
     <t>Turn that list into a form with a checkbox for clients to select products to purchase</t>
   </si>
+  <si>
+    <t>Develop different functionalities for each type of users whith their own homepages and databases.</t>
+  </si>
 </sst>
 </file>
 
@@ -1283,7 +1286,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,7 +1338,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1637,7 +1640,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
@@ -1951,7 +1954,7 @@
       <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
@@ -2261,11 +2264,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBD3D14-1678-436F-947A-2F15D441CEA6}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
@@ -2562,10 +2565,10 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
@@ -2629,6 +2632,9 @@
         <v>0.375</v>
       </c>
       <c r="B6" s="41"/>
+      <c r="C6" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,6 +2642,7 @@
         <v>0.38541666666666702</v>
       </c>
       <c r="B7" s="41"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,6 +2650,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="B8" s="41"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,6 +2658,7 @@
         <v>0.40625</v>
       </c>
       <c r="B9" s="41"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2657,6 +2666,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B10" s="52"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,18 +2832,19 @@
       <c r="D29" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="C6:C10"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:D21"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2844,10 +2855,10 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
